--- a/Task_3/src/script/newsheet.xlsx
+++ b/Task_3/src/script/newsheet.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -436,179 +436,179 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Mr</v>
+        <v>ms</v>
       </c>
       <c r="B2" t="str">
-        <v>Aleksi</v>
+        <v>kanathala</v>
       </c>
       <c r="C2" t="str">
-        <v>Kantola</v>
+        <v>saisree</v>
       </c>
       <c r="D2">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="E2" t="str">
-        <v>1958-08-19</v>
+        <v>1998-06-07</v>
       </c>
       <c r="F2" t="str">
-        <v>male</v>
+        <v>female</v>
       </c>
       <c r="G2" t="str">
-        <v>innominds</v>
+        <v>microsoft</v>
       </c>
       <c r="H2" t="str">
-        <v>aleksi.kantola@example.com</v>
-      </c>
-      <c r="I2" t="str">
-        <v>05-547-057</v>
+        <v>sree@gmail.com</v>
+      </c>
+      <c r="I2">
+        <v>9865457667</v>
       </c>
       <c r="J2" t="str">
-        <v>1786,Hämeentie,Yli,Uusimaa,37729</v>
+        <v>77-98/4,kpcolony,hyderbad,telangana,500032</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Miss</v>
+        <v>ms</v>
       </c>
       <c r="B3" t="str">
-        <v>Begüm</v>
+        <v>Soumyashree</v>
       </c>
       <c r="C3" t="str">
-        <v>Abacı</v>
+        <v>nand</v>
       </c>
       <c r="D3">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="E3" t="str">
-        <v>1954-06-30</v>
+        <v>1998-05-23</v>
       </c>
       <c r="F3" t="str">
         <v>female</v>
       </c>
       <c r="G3" t="str">
-        <v>amazon</v>
+        <v>sreeclinic</v>
       </c>
       <c r="H3" t="str">
-        <v>begum.abaci@example.com</v>
-      </c>
-      <c r="I3" t="str">
-        <v>(405)-875-9501</v>
+        <v>soumysree@gmail.com</v>
+      </c>
+      <c r="I3">
+        <v>8786764322</v>
       </c>
       <c r="J3" t="str">
-        <v>9471,Talak Göktepe Cd,Gümüşhane,Nevşehir,81537</v>
+        <v>4-2/4,teacherscolony,nagarkunool,telangana,500023</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Mrs</v>
+        <v>mr</v>
       </c>
       <c r="B4" t="str">
-        <v>Rosalyn</v>
+        <v>mothe</v>
       </c>
       <c r="C4" t="str">
-        <v>Bradley</v>
+        <v>anand</v>
       </c>
       <c r="D4">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="E4" t="str">
-        <v>1955-10-17</v>
+        <v>2002-07-23</v>
       </c>
       <c r="F4" t="str">
-        <v>female</v>
+        <v>male</v>
       </c>
       <c r="G4" t="str">
-        <v>microsoft</v>
+        <v>accenture</v>
       </c>
       <c r="H4" t="str">
-        <v>rosalyn.bradley@example.com</v>
-      </c>
-      <c r="I4" t="str">
-        <v>015396 53022</v>
+        <v>anand@gmail.com</v>
+      </c>
+      <c r="I4">
+        <v>9897864348</v>
       </c>
       <c r="J4" t="str">
-        <v>2592,South Street,Salford,Northumberland,X7H 0WA</v>
+        <v>2-24-432,bhagirathacolony,jadcherla,telangana,500023</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Mr</v>
+        <v>ms</v>
       </c>
       <c r="B5" t="str">
-        <v>Sofus</v>
+        <v>budhuru</v>
       </c>
       <c r="C5" t="str">
-        <v>Hasund</v>
+        <v>shirisha</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5" t="str">
-        <v>2000-08-22</v>
+        <v>1998-09-26</v>
       </c>
       <c r="F5" t="str">
-        <v>male</v>
+        <v>female</v>
       </c>
       <c r="G5" t="str">
-        <v>amazon</v>
+        <v>innominds</v>
       </c>
       <c r="H5" t="str">
-        <v>sofus.hasund@example.com</v>
-      </c>
-      <c r="I5" t="str">
-        <v>87137166</v>
+        <v>shirisha@gmail.com</v>
+      </c>
+      <c r="I5">
+        <v>9550717673</v>
       </c>
       <c r="J5" t="str">
-        <v>7160,Arnstein Arnebergs vei,Trøa,Bergen,5210</v>
+        <v>23,phpcolony,mahabubnagar,telangana,509893</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Mr</v>
+        <v>ms</v>
       </c>
       <c r="B6" t="str">
-        <v>Ryan</v>
+        <v>budhuru</v>
       </c>
       <c r="C6" t="str">
-        <v>Gregory</v>
+        <v>shirisha</v>
       </c>
       <c r="D6">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="E6" t="str">
-        <v>1959-12-26</v>
+        <v>1998-09-26</v>
       </c>
       <c r="F6" t="str">
-        <v>male</v>
+        <v>female</v>
       </c>
       <c r="G6" t="str">
-        <v>amazon</v>
+        <v>innominds</v>
       </c>
       <c r="H6" t="str">
-        <v>ryan.gregory@example.com</v>
-      </c>
-      <c r="I6" t="str">
-        <v>(419) 450-3721</v>
+        <v>shirisha@gmail.com</v>
+      </c>
+      <c r="I6">
+        <v>9550717673</v>
       </c>
       <c r="J6" t="str">
-        <v>8337,E Center St,Glendale,Maryland,13295</v>
+        <v>23,phpcolony,mahabubnagar,telangana,509893</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Mrs</v>
+        <v>ms</v>
       </c>
       <c r="B7" t="str">
-        <v>Sofie</v>
+        <v>Soumyashree</v>
       </c>
       <c r="C7" t="str">
-        <v>Thomsen</v>
+        <v>nand</v>
       </c>
       <c r="D7">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="E7" t="str">
-        <v>1958-08-31</v>
+        <v>1998-05-23</v>
       </c>
       <c r="F7" t="str">
         <v>female</v>
@@ -617,18 +617,210 @@
         <v>sreeclinic</v>
       </c>
       <c r="H7" t="str">
-        <v>sofie.thomsen@example.com</v>
-      </c>
-      <c r="I7" t="str">
-        <v>84920315</v>
+        <v>soumysree@gmail.com</v>
+      </c>
+      <c r="I7">
+        <v>8786764322</v>
       </c>
       <c r="J7" t="str">
-        <v>9535,Birkelunden,Randers Nv,Midtjylland,31088</v>
+        <v>4-2/4,teacherscolony,nagarkunool,telangana,500023</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>mr</v>
+      </c>
+      <c r="B8" t="str">
+        <v>mothe</v>
+      </c>
+      <c r="C8" t="str">
+        <v>anand</v>
+      </c>
+      <c r="D8">
+        <v>45</v>
+      </c>
+      <c r="E8" t="str">
+        <v>2002-07-23</v>
+      </c>
+      <c r="F8" t="str">
+        <v>male</v>
+      </c>
+      <c r="G8" t="str">
+        <v>accenture</v>
+      </c>
+      <c r="H8" t="str">
+        <v>anand@gmail.com</v>
+      </c>
+      <c r="I8">
+        <v>9897864348</v>
+      </c>
+      <c r="J8" t="str">
+        <v>2-24-432,bhagirathacolony,jadcherla,telangana,500023</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>ms</v>
+      </c>
+      <c r="B9" t="str">
+        <v>kanathala</v>
+      </c>
+      <c r="C9" t="str">
+        <v>saisree</v>
+      </c>
+      <c r="D9">
+        <v>28</v>
+      </c>
+      <c r="E9" t="str">
+        <v>1998-06-07</v>
+      </c>
+      <c r="F9" t="str">
+        <v>female</v>
+      </c>
+      <c r="G9" t="str">
+        <v>microsoft</v>
+      </c>
+      <c r="H9" t="str">
+        <v>sree@gmail.com</v>
+      </c>
+      <c r="I9">
+        <v>9865457667</v>
+      </c>
+      <c r="J9" t="str">
+        <v>77-98/4,kpcolony,hyderbad,telangana,500032</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>ms</v>
+      </c>
+      <c r="B10" t="str">
+        <v>kanathala</v>
+      </c>
+      <c r="C10" t="str">
+        <v>saisree</v>
+      </c>
+      <c r="D10">
+        <v>28</v>
+      </c>
+      <c r="E10" t="str">
+        <v>1998-06-07</v>
+      </c>
+      <c r="F10" t="str">
+        <v>female</v>
+      </c>
+      <c r="G10" t="str">
+        <v>microsoft</v>
+      </c>
+      <c r="H10" t="str">
+        <v>sree@gmail.com</v>
+      </c>
+      <c r="I10">
+        <v>9865457667</v>
+      </c>
+      <c r="J10" t="str">
+        <v>77-98/4,kpcolony,hyderbad,telangana,500032</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>ms</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Soumyashree</v>
+      </c>
+      <c r="C11" t="str">
+        <v>nand</v>
+      </c>
+      <c r="D11">
+        <v>24</v>
+      </c>
+      <c r="E11" t="str">
+        <v>1998-05-23</v>
+      </c>
+      <c r="F11" t="str">
+        <v>female</v>
+      </c>
+      <c r="G11" t="str">
+        <v>sreeclinic</v>
+      </c>
+      <c r="H11" t="str">
+        <v>soumysree@gmail.com</v>
+      </c>
+      <c r="I11">
+        <v>8786764322</v>
+      </c>
+      <c r="J11" t="str">
+        <v>4-2/4,teacherscolony,nagarkunool,telangana,500023</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>ms</v>
+      </c>
+      <c r="B12" t="str">
+        <v>budhuru</v>
+      </c>
+      <c r="C12" t="str">
+        <v>shirisha</v>
+      </c>
+      <c r="D12">
+        <v>24</v>
+      </c>
+      <c r="E12" t="str">
+        <v>1998-09-26</v>
+      </c>
+      <c r="F12" t="str">
+        <v>female</v>
+      </c>
+      <c r="G12" t="str">
+        <v>innominds</v>
+      </c>
+      <c r="H12" t="str">
+        <v>shirisha@gmail.com</v>
+      </c>
+      <c r="I12">
+        <v>9550717673</v>
+      </c>
+      <c r="J12" t="str">
+        <v>23,phpcolony,mahabubnagar,telangana,509893</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>mr</v>
+      </c>
+      <c r="B13" t="str">
+        <v>mothe</v>
+      </c>
+      <c r="C13" t="str">
+        <v>anand</v>
+      </c>
+      <c r="D13">
+        <v>45</v>
+      </c>
+      <c r="E13" t="str">
+        <v>2002-07-23</v>
+      </c>
+      <c r="F13" t="str">
+        <v>male</v>
+      </c>
+      <c r="G13" t="str">
+        <v>accenture</v>
+      </c>
+      <c r="H13" t="str">
+        <v>anand@gmail.com</v>
+      </c>
+      <c r="I13">
+        <v>9897864348</v>
+      </c>
+      <c r="J13" t="str">
+        <v>2-24-432,bhagirathacolony,jadcherla,telangana,500023</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J13"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Task_3/src/script/newsheet.xlsx
+++ b/Task_3/src/script/newsheet.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -436,34 +436,34 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>ms</v>
+        <v>mr</v>
       </c>
       <c r="B2" t="str">
-        <v>kanathala</v>
+        <v>mothe</v>
       </c>
       <c r="C2" t="str">
-        <v>saisree</v>
+        <v>anand</v>
       </c>
       <c r="D2">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="E2" t="str">
-        <v>1998-06-07</v>
+        <v>2002-07-23</v>
       </c>
       <c r="F2" t="str">
-        <v>female</v>
+        <v>male</v>
       </c>
       <c r="G2" t="str">
-        <v>microsoft</v>
+        <v>accenture</v>
       </c>
       <c r="H2" t="str">
-        <v>sree@gmail.com</v>
+        <v>anand@gmail.com</v>
       </c>
       <c r="I2">
-        <v>9865457667</v>
+        <v>9897864348</v>
       </c>
       <c r="J2" t="str">
-        <v>77-98/4,kpcolony,hyderbad,telangana,500032</v>
+        <v>2-24-432,bhagirathacolony,jadcherla,telangana,500023</v>
       </c>
     </row>
     <row r="3">
@@ -500,34 +500,34 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>mr</v>
+        <v>ms</v>
       </c>
       <c r="B4" t="str">
-        <v>mothe</v>
+        <v>kanathala</v>
       </c>
       <c r="C4" t="str">
-        <v>anand</v>
+        <v>saisree</v>
       </c>
       <c r="D4">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="E4" t="str">
-        <v>2002-07-23</v>
+        <v>1998-06-07</v>
       </c>
       <c r="F4" t="str">
-        <v>male</v>
+        <v>female</v>
       </c>
       <c r="G4" t="str">
-        <v>accenture</v>
+        <v>microsoft</v>
       </c>
       <c r="H4" t="str">
-        <v>anand@gmail.com</v>
+        <v>sree@gmail.com</v>
       </c>
       <c r="I4">
-        <v>9897864348</v>
+        <v>9865457667</v>
       </c>
       <c r="J4" t="str">
-        <v>2-24-432,bhagirathacolony,jadcherla,telangana,500023</v>
+        <v>77-98/4,kpcolony,hyderbad,telangana,500032</v>
       </c>
     </row>
     <row r="5">
@@ -562,265 +562,9 @@
         <v>23,phpcolony,mahabubnagar,telangana,509893</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>ms</v>
-      </c>
-      <c r="B6" t="str">
-        <v>budhuru</v>
-      </c>
-      <c r="C6" t="str">
-        <v>shirisha</v>
-      </c>
-      <c r="D6">
-        <v>24</v>
-      </c>
-      <c r="E6" t="str">
-        <v>1998-09-26</v>
-      </c>
-      <c r="F6" t="str">
-        <v>female</v>
-      </c>
-      <c r="G6" t="str">
-        <v>innominds</v>
-      </c>
-      <c r="H6" t="str">
-        <v>shirisha@gmail.com</v>
-      </c>
-      <c r="I6">
-        <v>9550717673</v>
-      </c>
-      <c r="J6" t="str">
-        <v>23,phpcolony,mahabubnagar,telangana,509893</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>ms</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Soumyashree</v>
-      </c>
-      <c r="C7" t="str">
-        <v>nand</v>
-      </c>
-      <c r="D7">
-        <v>24</v>
-      </c>
-      <c r="E7" t="str">
-        <v>1998-05-23</v>
-      </c>
-      <c r="F7" t="str">
-        <v>female</v>
-      </c>
-      <c r="G7" t="str">
-        <v>sreeclinic</v>
-      </c>
-      <c r="H7" t="str">
-        <v>soumysree@gmail.com</v>
-      </c>
-      <c r="I7">
-        <v>8786764322</v>
-      </c>
-      <c r="J7" t="str">
-        <v>4-2/4,teacherscolony,nagarkunool,telangana,500023</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>mr</v>
-      </c>
-      <c r="B8" t="str">
-        <v>mothe</v>
-      </c>
-      <c r="C8" t="str">
-        <v>anand</v>
-      </c>
-      <c r="D8">
-        <v>45</v>
-      </c>
-      <c r="E8" t="str">
-        <v>2002-07-23</v>
-      </c>
-      <c r="F8" t="str">
-        <v>male</v>
-      </c>
-      <c r="G8" t="str">
-        <v>accenture</v>
-      </c>
-      <c r="H8" t="str">
-        <v>anand@gmail.com</v>
-      </c>
-      <c r="I8">
-        <v>9897864348</v>
-      </c>
-      <c r="J8" t="str">
-        <v>2-24-432,bhagirathacolony,jadcherla,telangana,500023</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>ms</v>
-      </c>
-      <c r="B9" t="str">
-        <v>kanathala</v>
-      </c>
-      <c r="C9" t="str">
-        <v>saisree</v>
-      </c>
-      <c r="D9">
-        <v>28</v>
-      </c>
-      <c r="E9" t="str">
-        <v>1998-06-07</v>
-      </c>
-      <c r="F9" t="str">
-        <v>female</v>
-      </c>
-      <c r="G9" t="str">
-        <v>microsoft</v>
-      </c>
-      <c r="H9" t="str">
-        <v>sree@gmail.com</v>
-      </c>
-      <c r="I9">
-        <v>9865457667</v>
-      </c>
-      <c r="J9" t="str">
-        <v>77-98/4,kpcolony,hyderbad,telangana,500032</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>ms</v>
-      </c>
-      <c r="B10" t="str">
-        <v>kanathala</v>
-      </c>
-      <c r="C10" t="str">
-        <v>saisree</v>
-      </c>
-      <c r="D10">
-        <v>28</v>
-      </c>
-      <c r="E10" t="str">
-        <v>1998-06-07</v>
-      </c>
-      <c r="F10" t="str">
-        <v>female</v>
-      </c>
-      <c r="G10" t="str">
-        <v>microsoft</v>
-      </c>
-      <c r="H10" t="str">
-        <v>sree@gmail.com</v>
-      </c>
-      <c r="I10">
-        <v>9865457667</v>
-      </c>
-      <c r="J10" t="str">
-        <v>77-98/4,kpcolony,hyderbad,telangana,500032</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>ms</v>
-      </c>
-      <c r="B11" t="str">
-        <v>Soumyashree</v>
-      </c>
-      <c r="C11" t="str">
-        <v>nand</v>
-      </c>
-      <c r="D11">
-        <v>24</v>
-      </c>
-      <c r="E11" t="str">
-        <v>1998-05-23</v>
-      </c>
-      <c r="F11" t="str">
-        <v>female</v>
-      </c>
-      <c r="G11" t="str">
-        <v>sreeclinic</v>
-      </c>
-      <c r="H11" t="str">
-        <v>soumysree@gmail.com</v>
-      </c>
-      <c r="I11">
-        <v>8786764322</v>
-      </c>
-      <c r="J11" t="str">
-        <v>4-2/4,teacherscolony,nagarkunool,telangana,500023</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>ms</v>
-      </c>
-      <c r="B12" t="str">
-        <v>budhuru</v>
-      </c>
-      <c r="C12" t="str">
-        <v>shirisha</v>
-      </c>
-      <c r="D12">
-        <v>24</v>
-      </c>
-      <c r="E12" t="str">
-        <v>1998-09-26</v>
-      </c>
-      <c r="F12" t="str">
-        <v>female</v>
-      </c>
-      <c r="G12" t="str">
-        <v>innominds</v>
-      </c>
-      <c r="H12" t="str">
-        <v>shirisha@gmail.com</v>
-      </c>
-      <c r="I12">
-        <v>9550717673</v>
-      </c>
-      <c r="J12" t="str">
-        <v>23,phpcolony,mahabubnagar,telangana,509893</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>mr</v>
-      </c>
-      <c r="B13" t="str">
-        <v>mothe</v>
-      </c>
-      <c r="C13" t="str">
-        <v>anand</v>
-      </c>
-      <c r="D13">
-        <v>45</v>
-      </c>
-      <c r="E13" t="str">
-        <v>2002-07-23</v>
-      </c>
-      <c r="F13" t="str">
-        <v>male</v>
-      </c>
-      <c r="G13" t="str">
-        <v>accenture</v>
-      </c>
-      <c r="H13" t="str">
-        <v>anand@gmail.com</v>
-      </c>
-      <c r="I13">
-        <v>9897864348</v>
-      </c>
-      <c r="J13" t="str">
-        <v>2-24-432,bhagirathacolony,jadcherla,telangana,500023</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J13"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J5"/>
   </ignoredErrors>
 </worksheet>
 </file>